--- a/pred_ohlcv/54_21/2019-10-27 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 FX ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>49887.86659822731</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>58879.0386982273</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>58879.0386982273</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>58879.0386982273</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>64819.6530982273</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>104302.1591982273</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>104282.1591982273</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>104803.2941982273</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>131561.0116982273</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>198228.6207077511</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1033508.526694898</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>936299.7513948978</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>896892.9856948978</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>945586.4193948979</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1009943.786394898</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>945356.3587435465</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>932461.3102504431</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>899606.0712686249</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>896006.0792686249</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>913517.4560686249</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>912227.4930686249</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>971150.6742686249</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>895214.1356686249</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>878789.1820140794</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>920409.0262140795</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>920409.0262140795</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1043349.049301937</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1181559.183201937</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1412021.339422696</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1473371.793757264</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1421345.538757264</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1384614.380157264</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1498046.827356639</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1612658.382656639</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1903663.485902402</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1780060.495997751</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1780060.495997751</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1996640.165638927</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1921410.342734055</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1994541.544234055</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1960803.211134055</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>2001771.528234055</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>2109638.489234055</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>2093658.027134055</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>2147934.491434055</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2127325.992034055</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2115289.750634055</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2150476.408634054</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>2138802.231434055</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>2134692.487534055</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>2150506.118934054</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>2150506.118934054</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>2068754.259282835</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1935566.205882835</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2028639.092282835</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2041188.419282835</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2033325.951945728</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1990491.431845728</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1999600.544245728</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2000964.769445728</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1916097.519745728</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1916097.519745728</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1823367.427645728</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3356258.027281647</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3453496.166442395</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3539854.252782269</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3378598.632673616</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3428513.206673616</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>3484629.038133429</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3239781.266248813</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 FX ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>104302.1591982273</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>104282.1591982273</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>104803.2941982273</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>131561.0116982273</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>198228.6207077511</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1033508.526694898</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>936299.7513948978</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>896892.9856948978</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>945586.4193948979</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1009943.786394898</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>945356.3587435465</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>932461.3102504431</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>899606.0712686249</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>896006.0792686249</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>913517.4560686249</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>912227.4930686249</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>971150.6742686249</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>895214.1356686249</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>878789.1820140794</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>920409.0262140795</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>920409.0262140795</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1043349.049301937</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1181559.183201937</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1412021.339422696</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1473371.793757264</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1421345.538757264</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1384614.380157264</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1498046.827356639</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1612658.382656639</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1903663.485902402</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1780060.495997751</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1780060.495997751</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1996640.165638927</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1921410.342734055</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1994541.544234055</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1960803.211134055</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>2001771.528234055</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>2109638.489234055</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>2093658.027134055</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>2147934.491434055</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2127325.992034055</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2115289.750634055</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2150476.408634054</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>2138802.231434055</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>2134692.487534055</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>2150506.118934054</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>2150506.118934054</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>2068754.259282835</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1935566.205882835</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2028639.092282835</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2041188.419282835</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2033325.951945728</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1990491.431845728</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1999600.544245728</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2000964.769445728</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1916097.519745728</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1916097.519745728</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1823367.427645728</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3356258.027281647</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3453496.166442395</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3539854.252782269</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3378598.632673616</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3428513.206673616</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>3484629.038133429</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3239781.266248813</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
